--- a/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
+++ b/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
   <si>
     <t>Duration</t>
   </si>
@@ -71,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -95,11 +95,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -117,6 +145,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,31 +189,31 @@
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="16.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.7109375" customWidth="true"/>
     <col min="7" max="7" width="17.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -169,19 +225,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>948.48805224524358</v>
+        <v>2695.4565957512059</v>
       </c>
       <c r="D2">
-        <v>3082.7426819478596</v>
-      </c>
-      <c r="E2">
-        <v>2665.4781252095895</v>
-      </c>
-      <c r="F2">
-        <v>8422.3491053017533</v>
-      </c>
-      <c r="G2">
-        <v>4663.039800733879</v>
+        <v>8027.9503193795208</v>
       </c>
     </row>
     <row r="3">
@@ -192,19 +239,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2592.5599236011039</v>
+        <v>9482.5846168356657</v>
       </c>
       <c r="D3">
-        <v>4181.227193165375</v>
-      </c>
-      <c r="E3">
-        <v>7298.2972745231527</v>
-      </c>
-      <c r="F3">
-        <v>11751.032171294926</v>
-      </c>
-      <c r="G3">
-        <v>12703.805418705246</v>
+        <v>16918.295264770113</v>
       </c>
     </row>
     <row r="4">
@@ -215,19 +253,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4780.3608681787246</v>
+        <v>21519.828054169971</v>
       </c>
       <c r="D4">
-        <v>5878.5135809478852</v>
-      </c>
-      <c r="E4">
-        <v>13461.19752920365</v>
-      </c>
-      <c r="F4">
-        <v>16474.506009494391</v>
-      </c>
-      <c r="G4">
-        <v>24957.774063047538</v>
+        <v>31436.980906267312</v>
       </c>
     </row>
     <row r="5">
@@ -238,19 +267,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7026.3627718893767</v>
+        <v>36845.596488420677</v>
       </c>
       <c r="D5">
-        <v>5916.939434023896</v>
-      </c>
-      <c r="E5">
-        <v>19757.478345777687</v>
-      </c>
-      <c r="F5">
-        <v>16546.122338650504</v>
-      </c>
-      <c r="G5">
-        <v>41299.493577357898</v>
+        <v>38170.375142534765</v>
       </c>
     </row>
     <row r="6">
@@ -261,19 +281,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>8768.3326166953393</v>
+        <v>50827.501087992961</v>
       </c>
       <c r="D6">
-        <v>8848.9463054957305</v>
-      </c>
-      <c r="E6">
-        <v>24573.761852503252</v>
-      </c>
-      <c r="F6">
-        <v>24944.611454397618</v>
-      </c>
-      <c r="G6">
-        <v>60037.368787329862</v>
+        <v>56730.729130178443</v>
       </c>
     </row>
     <row r="7">
@@ -284,19 +295,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>9680.9132160676472</v>
+        <v>59361.303857028732</v>
       </c>
       <c r="D7">
-        <v>11327.312969095734</v>
-      </c>
-      <c r="E7">
-        <v>26987.029922342474</v>
-      </c>
-      <c r="F7">
-        <v>31393.076394881104</v>
-      </c>
-      <c r="G7">
-        <v>77857.474516525297</v>
+        <v>64709.545629316621</v>
       </c>
     </row>
     <row r="8">
@@ -307,19 +309,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>9791.3440748673129</v>
+        <v>61429.213684402639</v>
       </c>
       <c r="D8">
-        <v>16523.279687609356</v>
-      </c>
-      <c r="E8">
-        <v>27093.107917942383</v>
-      </c>
-      <c r="F8">
-        <v>47812.823767662718</v>
-      </c>
-      <c r="G8">
-        <v>90643.346145232834</v>
+        <v>155484.70922242332</v>
       </c>
     </row>
     <row r="9">
@@ -330,19 +323,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>9373.5370740863309</v>
+        <v>58881.280404840967</v>
       </c>
       <c r="D9">
-        <v>10694.022784398649</v>
-      </c>
-      <c r="E9">
-        <v>25689.548359339657</v>
-      </c>
-      <c r="F9">
-        <v>29919.043126517718</v>
-      </c>
-      <c r="G9">
-        <v>94987.701411036018</v>
+        <v>82463.163990834146</v>
       </c>
     </row>
     <row r="10">
@@ -353,13 +337,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8772.0745424097622</v>
-      </c>
-      <c r="E10">
-        <v>23758.678836703006</v>
-      </c>
-      <c r="G10">
-        <v>89658.1639405561</v>
+        <v>54632.34658026629</v>
       </c>
     </row>
     <row r="11">
@@ -370,13 +348,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8289.9699739274183</v>
-      </c>
-      <c r="E11">
-        <v>22139.522316008311</v>
-      </c>
-      <c r="G11">
-        <v>76161.543047483545</v>
+        <v>51281.944156317462</v>
       </c>
     </row>
     <row r="12">
@@ -387,13 +359,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8176.2231260901899</v>
-      </c>
-      <c r="E12">
-        <v>21485.526886191634</v>
-      </c>
-      <c r="G12">
-        <v>58056.13466630067</v>
+        <v>50905.123480977229</v>
       </c>
     </row>
     <row r="13">
@@ -404,13 +370,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8696.5915098685218</v>
-      </c>
-      <c r="E13">
-        <v>22445.723772108286</v>
-      </c>
-      <c r="G13">
-        <v>39437.898282522066</v>
+        <v>55853.009322393344</v>
       </c>
     </row>
     <row r="14">
@@ -421,13 +381,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10295.006847884159</v>
-      </c>
-      <c r="E14">
-        <v>26060.858814930099</v>
-      </c>
-      <c r="G14">
-        <v>23473.956460419424</v>
+        <v>70757.121879199971</v>
       </c>
     </row>
     <row r="15">
@@ -438,13 +392,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13965.39073150205</v>
-      </c>
-      <c r="E15">
-        <v>34633.064831235584</v>
-      </c>
-      <c r="G15">
-        <v>11676.448159416739</v>
+        <v>108013.7634270773</v>
       </c>
     </row>
     <row r="16">
@@ -455,13 +403,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>22305.182405612686</v>
-      </c>
-      <c r="E16">
-        <v>54121.078737864918</v>
-      </c>
-      <c r="G16">
-        <v>4037.2874232063823</v>
+        <v>207243.4344385165</v>
       </c>
     </row>
   </sheetData>
@@ -482,22 +424,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
@@ -509,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>17.074285253479474</v>
+        <v>38.805193757907901</v>
       </c>
       <c r="D2">
-        <v>29.176159537724942</v>
+        <v>66.309453494829427</v>
       </c>
       <c r="E2">
-        <v>42.836201035220142</v>
+        <v>97.355002352773056</v>
       </c>
       <c r="F2">
-        <v>80.176418332444598</v>
+        <v>182.21913257373774</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +471,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>31.546796465376872</v>
+        <v>71.697264694038353</v>
       </c>
       <c r="D3">
-        <v>53.346242021160663</v>
+        <v>121.24145913900152</v>
       </c>
       <c r="E3">
-        <v>78.707043181339827</v>
+        <v>178.87964359395417</v>
       </c>
       <c r="F3">
-        <v>132.77193935402914</v>
+        <v>301.75440762279351</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>42.403053486078903</v>
+        <v>96.37057610472479</v>
       </c>
       <c r="D4">
-        <v>62.080055204259224</v>
+        <v>141.09103455513463</v>
       </c>
       <c r="E4">
-        <v>105.23357220735681</v>
+        <v>239.16720956217461</v>
       </c>
       <c r="F4">
-        <v>158.35765033641547</v>
+        <v>359.90375076458065</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +511,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>49.330170942028403</v>
+        <v>112.11402486824637</v>
       </c>
       <c r="D5">
-        <v>6.392405434356931</v>
+        <v>14.528194168993027</v>
       </c>
       <c r="E5">
-        <v>121.69701743203348</v>
+        <v>276.58413052734886</v>
       </c>
       <c r="F5">
-        <v>14.665244233337887</v>
+        <v>33.330100530313381</v>
       </c>
     </row>
     <row r="6">
@@ -589,16 +531,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>52.66083879956544</v>
+        <v>119.68372454446691</v>
       </c>
       <c r="D6">
-        <v>70.642029472579509</v>
+        <v>160.55006698313525</v>
       </c>
       <c r="E6">
-        <v>128.89668663071569</v>
+        <v>292.9470150698084</v>
       </c>
       <c r="F6">
-        <v>200.10146706287668</v>
+        <v>454.77606150653793</v>
       </c>
     </row>
     <row r="7">
@@ -609,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>53.189523185051613</v>
+        <v>120.8852799660264</v>
       </c>
       <c r="D7">
-        <v>50.212505243175343</v>
+        <v>114.11933009812579</v>
       </c>
       <c r="E7">
-        <v>128.72268305834706</v>
+        <v>292.55155240533423</v>
       </c>
       <c r="F7">
-        <v>120.81223266787254</v>
+        <v>274.57325606334672</v>
       </c>
     </row>
     <row r="8">
@@ -629,16 +571,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>51.954737725973231</v>
+        <v>118.0789493772119</v>
       </c>
       <c r="D8">
-        <v>148.41730694170337</v>
+        <v>337.31206123114407</v>
       </c>
       <c r="E8">
-        <v>123.64566436189943</v>
+        <v>281.01287354977148</v>
       </c>
       <c r="F8">
-        <v>372.85873230124724</v>
+        <v>847.40620977556205</v>
       </c>
     </row>
     <row r="9">
@@ -649,16 +591,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>50.061613217213463</v>
+        <v>113.77639367548515</v>
       </c>
       <c r="D9">
-        <v>65.357829351923044</v>
+        <v>148.54052125437056</v>
       </c>
       <c r="E9">
-        <v>116.28610838346395</v>
+        <v>264.28660996241808</v>
       </c>
       <c r="F9">
-        <v>151.33178672407035</v>
+        <v>343.93587891834176</v>
       </c>
     </row>
     <row r="10">
@@ -669,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>48.583386459814349</v>
+        <v>110.41678740866898</v>
       </c>
       <c r="E10">
-        <v>109.1501974315093</v>
+        <v>248.06863052615751</v>
       </c>
     </row>
     <row r="11">
@@ -683,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>48.551014874501917</v>
+        <v>110.34321562386801</v>
       </c>
       <c r="E11">
-        <v>104.55298189466765</v>
+        <v>237.62041339697197</v>
       </c>
     </row>
     <row r="12">
@@ -697,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>51.027868400443182</v>
+        <v>115.97242818282542</v>
       </c>
       <c r="E12">
-        <v>104.71489759473786</v>
+        <v>237.98840362440424</v>
       </c>
     </row>
     <row r="13">
@@ -711,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>57.273740059771214</v>
+        <v>130.1675910449346</v>
       </c>
       <c r="E13">
-        <v>112.01928454550449</v>
+        <v>254.58928305796476</v>
       </c>
     </row>
     <row r="14">
@@ -725,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>69.030633038899524</v>
+        <v>156.8878023611353</v>
       </c>
       <c r="E14">
-        <v>129.45408307499628</v>
+        <v>294.21382517044611</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>89.021702739015595</v>
+        <v>202.32205167958091</v>
       </c>
       <c r="E15">
-        <v>161.33557032842538</v>
+        <v>366.67175074642137</v>
       </c>
     </row>
     <row r="16">
@@ -753,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>121.87682879855045</v>
+        <v>276.99279272397831</v>
       </c>
       <c r="E16">
-        <v>214.55455792779577</v>
+        <v>487.62399529044495</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
+++ b/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="12">
   <si>
     <t>Duration</t>
   </si>
@@ -71,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -123,11 +123,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -173,6 +181,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,31 +205,31 @@
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="16.7109375" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.7109375" customWidth="true"/>
     <col min="7" max="7" width="17.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -225,10 +241,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2695.4565957512059</v>
+        <v>325.24961961547638</v>
       </c>
       <c r="D2">
-        <v>8027.9503193795208</v>
+        <v>3237.7257224740706</v>
+      </c>
+      <c r="E2">
+        <v>1577.112124559565</v>
+      </c>
+      <c r="F2">
+        <v>16039.077319470925</v>
+      </c>
+      <c r="G2">
+        <v>206.37823785145576</v>
       </c>
     </row>
     <row r="3">
@@ -239,10 +264,19 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>9482.5846168356657</v>
+        <v>1017.2210705761779</v>
       </c>
       <c r="D3">
-        <v>16918.295264770113</v>
+        <v>5384.3983204334681</v>
+      </c>
+      <c r="E3">
+        <v>4942.2485726389314</v>
+      </c>
+      <c r="F3">
+        <v>25792.922858168138</v>
+      </c>
+      <c r="G3">
+        <v>682.26003153769761</v>
       </c>
     </row>
     <row r="4">
@@ -253,10 +287,19 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>21519.828054169971</v>
+        <v>2317.5867795529912</v>
       </c>
       <c r="D4">
-        <v>31436.980906267312</v>
+        <v>5850.4760208628632</v>
+      </c>
+      <c r="E4">
+        <v>11283.632830930585</v>
+      </c>
+      <c r="F4">
+        <v>27626.032191152477</v>
+      </c>
+      <c r="G4">
+        <v>1643.248149326075</v>
       </c>
     </row>
     <row r="5">
@@ -267,10 +310,19 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>36845.596488420677</v>
+        <v>4464.1805801274504</v>
       </c>
       <c r="D5">
-        <v>38170.375142534765</v>
+        <v>4111.1420624571983</v>
+      </c>
+      <c r="E5">
+        <v>21779.511087861982</v>
+      </c>
+      <c r="F5">
+        <v>19920.833176014043</v>
+      </c>
+      <c r="G5">
+        <v>3333.6316535748392</v>
       </c>
     </row>
     <row r="6">
@@ -281,10 +333,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>50827.501087992961</v>
+        <v>7549.7881124505011</v>
       </c>
       <c r="D6">
-        <v>56730.729130178443</v>
+        <v>9885.725728346024</v>
+      </c>
+      <c r="E6">
+        <v>36905.594994275583</v>
+      </c>
+      <c r="F6">
+        <v>45789.99598391269</v>
+      </c>
+      <c r="G6">
+        <v>5901.7568758920715</v>
       </c>
     </row>
     <row r="7">
@@ -295,10 +356,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>59361.303857028732</v>
+        <v>11354.103510417341</v>
       </c>
       <c r="D7">
-        <v>64709.545629316621</v>
+        <v>6960.4947402359658</v>
+      </c>
+      <c r="E7">
+        <v>55603.283802033919</v>
+      </c>
+      <c r="F7">
+        <v>33819.740311024005</v>
+      </c>
+      <c r="G7">
+        <v>9222.9079008931003</v>
       </c>
     </row>
     <row r="8">
@@ -309,10 +379,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>61429.213684402639</v>
+        <v>15259.655763484099</v>
       </c>
       <c r="D8">
-        <v>155484.70922242332</v>
+        <v>19122.161081699414</v>
+      </c>
+      <c r="E8">
+        <v>74853.369610946334</v>
+      </c>
+      <c r="F8">
+        <v>93630.732094088467</v>
+      </c>
+      <c r="G8">
+        <v>12776.899095054529</v>
       </c>
     </row>
     <row r="9">
@@ -323,10 +402,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>58881.280404840967</v>
+        <v>18365.952256557342</v>
       </c>
       <c r="D9">
-        <v>82463.163990834146</v>
+        <v>7184.0496556557746</v>
+      </c>
+      <c r="E9">
+        <v>90224.138082406149</v>
+      </c>
+      <c r="F9">
+        <v>34305.859935877474</v>
+      </c>
+      <c r="G9">
+        <v>15718.174447689698</v>
       </c>
     </row>
     <row r="10">
@@ -337,7 +425,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>54632.34658026629</v>
+        <v>19812.634052271835</v>
+      </c>
+      <c r="E10">
+        <v>97457.584794769995</v>
+      </c>
+      <c r="G10">
+        <v>17183.33839597832</v>
       </c>
     </row>
     <row r="11">
@@ -348,7 +442,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>51281.944156317462</v>
+        <v>19162.708218335876</v>
+      </c>
+      <c r="E11">
+        <v>94366.109065524783</v>
+      </c>
+      <c r="G11">
+        <v>16697.278683461867</v>
       </c>
     </row>
     <row r="12">
@@ -359,7 +459,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>50905.123480977229</v>
+        <v>16615.142793183106</v>
+      </c>
+      <c r="E12">
+        <v>81897.997591195905</v>
+      </c>
+      <c r="G12">
+        <v>14420.648644158011</v>
       </c>
     </row>
     <row r="13">
@@ -370,7 +476,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>55853.009322393344</v>
+        <v>12906.800417687034</v>
+      </c>
+      <c r="E13">
+        <v>63669.149598788186</v>
+      </c>
+      <c r="G13">
+        <v>11064.618399154175</v>
       </c>
     </row>
     <row r="14">
@@ -381,7 +493,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>70757.121879199971</v>
+        <v>8969.1249442098633</v>
+      </c>
+      <c r="E14">
+        <v>44273.975013599375</v>
+      </c>
+      <c r="G14">
+        <v>7533.952381108088</v>
       </c>
     </row>
     <row r="15">
@@ -392,7 +510,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>108013.7634270773</v>
+        <v>5556.1625822501328</v>
+      </c>
+      <c r="E15">
+        <v>27443.793343927577</v>
+      </c>
+      <c r="G15">
+        <v>4540.3661378195357</v>
       </c>
     </row>
     <row r="16">
@@ -403,7 +527,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>207243.4344385165</v>
+        <v>3041.6502155630656</v>
+      </c>
+      <c r="E16">
+        <v>15035.690424603665</v>
+      </c>
+      <c r="G16">
+        <v>2405.3969112360091</v>
       </c>
     </row>
   </sheetData>
@@ -424,22 +554,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="51" t="s">
         <v>10</v>
       </c>
     </row>
@@ -451,16 +581,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>38.805193757907901</v>
+        <v>17.380472502031907</v>
       </c>
       <c r="D2">
-        <v>66.309453494829427</v>
+        <v>66.64128991275274</v>
       </c>
       <c r="E2">
-        <v>97.355002352773056</v>
+        <v>117.28610527930448</v>
       </c>
       <c r="F2">
-        <v>182.21913257373774</v>
+        <v>495.55489300625675</v>
       </c>
     </row>
     <row r="3">
@@ -471,16 +601,16 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>71.697264694038353</v>
+        <v>35.014092745270688</v>
       </c>
       <c r="D3">
-        <v>121.24145913900152</v>
+        <v>73.095182977624034</v>
       </c>
       <c r="E3">
-        <v>178.87964359395417</v>
+        <v>236.51290095909349</v>
       </c>
       <c r="F3">
-        <v>301.75440762279351</v>
+        <v>495.55489300625675</v>
       </c>
     </row>
     <row r="4">
@@ -491,16 +621,16 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>96.37057610472479</v>
+        <v>52.300289140839311</v>
       </c>
       <c r="D4">
-        <v>141.09103455513463</v>
+        <v>107.28688212851506</v>
       </c>
       <c r="E4">
-        <v>239.16720956217461</v>
+        <v>353.60109133768606</v>
       </c>
       <c r="F4">
-        <v>359.90375076458065</v>
+        <v>681.55628206018116</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +641,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>112.11402486824637</v>
+        <v>68.580234529173111</v>
       </c>
       <c r="D5">
-        <v>14.528194168993027</v>
+        <v>30.917739517563149</v>
       </c>
       <c r="E5">
-        <v>276.58413052734886</v>
+        <v>464.05793786148115</v>
       </c>
       <c r="F5">
-        <v>33.330100530313381</v>
+        <v>223.01833569268149</v>
       </c>
     </row>
     <row r="6">
@@ -531,16 +661,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>119.68372454446691</v>
+        <v>83.176754600702481</v>
       </c>
       <c r="D6">
-        <v>160.55006698313525</v>
+        <v>101.64297932950916</v>
       </c>
       <c r="E6">
-        <v>292.9470150698084</v>
+        <v>563.25075567500198</v>
       </c>
       <c r="F6">
-        <v>454.77606150653793</v>
+        <v>617.79039568202177</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +681,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>120.8852799660264</v>
+        <v>95.440195363328542</v>
       </c>
       <c r="D7">
-        <v>114.11933009812579</v>
+        <v>79.792342768276768</v>
       </c>
       <c r="E7">
-        <v>292.55155240533423</v>
+        <v>646.72307193841925</v>
       </c>
       <c r="F7">
-        <v>274.57325606334672</v>
+        <v>557.01297491205253</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +701,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>118.0789493772119</v>
+        <v>104.79602346265926</v>
       </c>
       <c r="D8">
-        <v>337.31206123114407</v>
+        <v>298.02698277842296</v>
       </c>
       <c r="E8">
-        <v>281.01287354977148</v>
+        <v>710.52412762806125</v>
       </c>
       <c r="F8">
-        <v>847.40620977556205</v>
+        <v>2025.4739203953286</v>
       </c>
     </row>
     <row r="9">
@@ -591,16 +721,16 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>113.77639367548515</v>
+        <v>110.78934212153231</v>
       </c>
       <c r="D9">
-        <v>148.54052125437056</v>
+        <v>-4.70176576395491</v>
       </c>
       <c r="E9">
-        <v>264.28660996241808</v>
+        <v>751.51808610584976</v>
       </c>
       <c r="F9">
-        <v>343.93587891834176</v>
+        <v>-25.319318151986522</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>110.41678740866898</v>
+        <v>113.12153185946204</v>
       </c>
       <c r="E10">
-        <v>248.06863052615751</v>
+        <v>767.63934000149902</v>
       </c>
     </row>
     <row r="11">
@@ -625,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>110.34321562386801</v>
+        <v>111.67490909138658</v>
       </c>
       <c r="E11">
-        <v>237.62041339697197</v>
+        <v>758.06499407629667</v>
       </c>
     </row>
     <row r="12">
@@ -639,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>115.97242818282542</v>
+        <v>106.52256791631626</v>
       </c>
       <c r="E12">
-        <v>237.98840362440424</v>
+        <v>723.28447464417059</v>
       </c>
     </row>
     <row r="13">
@@ -653,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>130.1675910449346</v>
+        <v>97.922259250871008</v>
       </c>
       <c r="E13">
-        <v>254.58928305796476</v>
+        <v>665.05806851117381</v>
       </c>
     </row>
     <row r="14">
@@ -667,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>156.8878023611353</v>
+        <v>86.295020874510868</v>
       </c>
       <c r="E14">
-        <v>294.21382517044611</v>
+        <v>586.26928084009273</v>
       </c>
     </row>
     <row r="15">
@@ -681,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>202.32205167958091</v>
+        <v>72.191025006571152</v>
       </c>
       <c r="E15">
-        <v>366.67175074642137</v>
+        <v>490.68825063628105</v>
       </c>
     </row>
     <row r="16">
@@ -695,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>276.99279272397831</v>
+        <v>56.24649907224304</v>
       </c>
       <c r="E16">
-        <v>487.62399529044495</v>
+        <v>382.67323853970152</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
+++ b/Results/Di_Belsky_Liu_Graph/Di_Matlab_Replication/Matlab_Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="40">
   <si>
     <t>Duration</t>
   </si>
@@ -51,6 +51,90 @@
   </si>
   <si>
     <t>Duration_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_C</t>
+  </si>
+  <si>
+    <t>LW_Model_C_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_D</t>
+  </si>
+  <si>
+    <t>LW_Model_D_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_E</t>
+  </si>
+  <si>
+    <t>LW_Model_E_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_F</t>
+  </si>
+  <si>
+    <t>LW_Model_F_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_G</t>
+  </si>
+  <si>
+    <t>LW_Model_G_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_H</t>
+  </si>
+  <si>
+    <t>LW_Model_H_Dummy</t>
+  </si>
+  <si>
+    <t>LW_Model_I</t>
+  </si>
+  <si>
+    <t>LW_Model_I_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_C</t>
+  </si>
+  <si>
+    <t>NW_Model_C_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_D</t>
+  </si>
+  <si>
+    <t>NW_Model_D_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_E</t>
+  </si>
+  <si>
+    <t>NW_Model_E_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_F</t>
+  </si>
+  <si>
+    <t>NW_Model_F_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_G</t>
+  </si>
+  <si>
+    <t>NW_Model_G_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_H</t>
+  </si>
+  <si>
+    <t>NW_Model_H_Dummy</t>
+  </si>
+  <si>
+    <t>NW_Model_I</t>
+  </si>
+  <si>
+    <t>NW_Model_I_Dummy</t>
   </si>
 </sst>
 </file>
@@ -71,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -131,11 +215,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -189,6 +287,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:T16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="true"/>
@@ -207,30 +319,82 @@
     <col min="4" max="4" width="16.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.7109375" customWidth="true"/>
-    <col min="7" max="7" width="17.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="16.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="16.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="16.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="16.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>6</v>
+      <c r="G1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -255,6 +419,45 @@
       <c r="G2">
         <v>206.37823785145576</v>
       </c>
+      <c r="H2">
+        <v>2245.3832382581204</v>
+      </c>
+      <c r="I2">
+        <v>1497.6162928774011</v>
+      </c>
+      <c r="J2">
+        <v>16482.987664679473</v>
+      </c>
+      <c r="K2">
+        <v>155.05714022522511</v>
+      </c>
+      <c r="L2">
+        <v>1728.0899516319273</v>
+      </c>
+      <c r="M2">
+        <v>1035.0838117728388</v>
+      </c>
+      <c r="N2">
+        <v>11919.60256173786</v>
+      </c>
+      <c r="O2">
+        <v>164.34546188995284</v>
+      </c>
+      <c r="P2">
+        <v>1963.0100597825094</v>
+      </c>
+      <c r="Q2">
+        <v>2267.1402883157125</v>
+      </c>
+      <c r="R2">
+        <v>26971.35529766199</v>
+      </c>
+      <c r="S2">
+        <v>170.47319539116975</v>
+      </c>
+      <c r="T2">
+        <v>2344.4009659104518</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -278,6 +481,45 @@
       <c r="G3">
         <v>682.26003153769761</v>
       </c>
+      <c r="H3">
+        <v>4014.3974613209966</v>
+      </c>
+      <c r="I3">
+        <v>4979.5658887290292</v>
+      </c>
+      <c r="J3">
+        <v>28409.351313185787</v>
+      </c>
+      <c r="K3">
+        <v>492.7487154465278</v>
+      </c>
+      <c r="L3">
+        <v>2750.5917135817926</v>
+      </c>
+      <c r="M3">
+        <v>3299.9983926834366</v>
+      </c>
+      <c r="N3">
+        <v>18195.892193002746</v>
+      </c>
+      <c r="O3">
+        <v>583.90362186724496</v>
+      </c>
+      <c r="P3">
+        <v>3915.1812749563028</v>
+      </c>
+      <c r="Q3">
+        <v>8140.4987378516271</v>
+      </c>
+      <c r="R3">
+        <v>51486.32203271256</v>
+      </c>
+      <c r="S3">
+        <v>774.38323977700497</v>
+      </c>
+      <c r="T3">
+        <v>8672.769866601684</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -301,6 +543,45 @@
       <c r="G4">
         <v>1643.248149326075</v>
       </c>
+      <c r="H4">
+        <v>4705.3980983817837</v>
+      </c>
+      <c r="I4">
+        <v>12064.118941576819</v>
+      </c>
+      <c r="J4">
+        <v>32926.487014991915</v>
+      </c>
+      <c r="K4">
+        <v>1138.7852665972571</v>
+      </c>
+      <c r="L4">
+        <v>3396.0628095946086</v>
+      </c>
+      <c r="M4">
+        <v>7652.0151332196274</v>
+      </c>
+      <c r="N4">
+        <v>22327.269831717553</v>
+      </c>
+      <c r="O4">
+        <v>1509.4799049872399</v>
+      </c>
+      <c r="P4">
+        <v>5451.9654338762202</v>
+      </c>
+      <c r="Q4">
+        <v>21272.448977825861</v>
+      </c>
+      <c r="R4">
+        <v>71537.036726256178</v>
+      </c>
+      <c r="S4">
+        <v>2571.1692005039758</v>
+      </c>
+      <c r="T4">
+        <v>14236.570975189627</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -324,6 +605,45 @@
       <c r="G5">
         <v>3333.6316535748392</v>
       </c>
+      <c r="H5">
+        <v>3312.9225461857841</v>
+      </c>
+      <c r="I5">
+        <v>24611.367054239618</v>
+      </c>
+      <c r="J5">
+        <v>23908.093186022918</v>
+      </c>
+      <c r="K5">
+        <v>2218.1379263521885</v>
+      </c>
+      <c r="L5">
+        <v>2328.5828501529309</v>
+      </c>
+      <c r="M5">
+        <v>14952.741923109448</v>
+      </c>
+      <c r="N5">
+        <v>15758.11558425268</v>
+      </c>
+      <c r="O5">
+        <v>3264.3239941591246</v>
+      </c>
+      <c r="P5">
+        <v>3790.0561432640743</v>
+      </c>
+      <c r="Q5">
+        <v>46475.392447899438</v>
+      </c>
+      <c r="R5">
+        <v>51643.190926440649</v>
+      </c>
+      <c r="S5">
+        <v>7040.741840859795</v>
+      </c>
+      <c r="T5">
+        <v>10697.126774179947</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -347,6 +667,45 @@
       <c r="G6">
         <v>5901.7568758920715</v>
       </c>
+      <c r="H6">
+        <v>8213.2592338503055</v>
+      </c>
+      <c r="I6">
+        <v>43792.337884987734</v>
+      </c>
+      <c r="J6">
+        <v>56203.210850581861</v>
+      </c>
+      <c r="K6">
+        <v>3778.3251648351579</v>
+      </c>
+      <c r="L6">
+        <v>5080.6509988236448</v>
+      </c>
+      <c r="M6">
+        <v>25546.283172504915</v>
+      </c>
+      <c r="N6">
+        <v>32236.132316133466</v>
+      </c>
+      <c r="O6">
+        <v>6098.9991067767069</v>
+      </c>
+      <c r="P6">
+        <v>8981.0087326784942</v>
+      </c>
+      <c r="Q6">
+        <v>87640.461342626382</v>
+      </c>
+      <c r="R6">
+        <v>112831.26926555902</v>
+      </c>
+      <c r="S6">
+        <v>16271.985719466629</v>
+      </c>
+      <c r="T6">
+        <v>28448.117071515757</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -370,6 +729,45 @@
       <c r="G7">
         <v>9222.9079008931003</v>
       </c>
+      <c r="H7">
+        <v>5846.9619465972073</v>
+      </c>
+      <c r="I7">
+        <v>68738.693469122882</v>
+      </c>
+      <c r="J7">
+        <v>42474.614611166966</v>
+      </c>
+      <c r="K7">
+        <v>5697.8097590150473</v>
+      </c>
+      <c r="L7">
+        <v>3317.228131412056</v>
+      </c>
+      <c r="M7">
+        <v>38627.745445197215</v>
+      </c>
+      <c r="N7">
+        <v>22395.746657938442</v>
+      </c>
+      <c r="O7">
+        <v>9942.3426018326227</v>
+      </c>
+      <c r="P7">
+        <v>5722.8879143595505</v>
+      </c>
+      <c r="Q7">
+        <v>144024.4487069849</v>
+      </c>
+      <c r="R7">
+        <v>78026.617195381099</v>
+      </c>
+      <c r="S7">
+        <v>31920.758307062031</v>
+      </c>
+      <c r="T7">
+        <v>24925.774543312084</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -393,6 +791,45 @@
       <c r="G8">
         <v>12776.899095054529</v>
       </c>
+      <c r="H8">
+        <v>16239.462249997134</v>
+      </c>
+      <c r="I8">
+        <v>95579.499389782985</v>
+      </c>
+      <c r="J8">
+        <v>119344.59292323845</v>
+      </c>
+      <c r="K8">
+        <v>7642.8164109733207</v>
+      </c>
+      <c r="L8">
+        <v>9157.7706547061243</v>
+      </c>
+      <c r="M8">
+        <v>51934.775035422674</v>
+      </c>
+      <c r="N8">
+        <v>62425.60268031474</v>
+      </c>
+      <c r="O8">
+        <v>14189.867395117928</v>
+      </c>
+      <c r="P8">
+        <v>16761.570749603055</v>
+      </c>
+      <c r="Q8">
+        <v>206951.34171340443</v>
+      </c>
+      <c r="R8">
+        <v>232102.5592420084</v>
+      </c>
+      <c r="S8">
+        <v>53238.753123732531</v>
+      </c>
+      <c r="T8">
+        <v>72883.125233805709</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -416,6 +853,45 @@
       <c r="G9">
         <v>15718.174447689698</v>
       </c>
+      <c r="H9">
+        <v>6321.2540554728439</v>
+      </c>
+      <c r="I9">
+        <v>117929.43574208432</v>
+      </c>
+      <c r="J9">
+        <v>45043.190563848279</v>
+      </c>
+      <c r="K9">
+        <v>9136.4906130432646</v>
+      </c>
+      <c r="L9">
+        <v>3632.6159685940834</v>
+      </c>
+      <c r="M9">
+        <v>62207.057906930851</v>
+      </c>
+      <c r="N9">
+        <v>24053.273840063601</v>
+      </c>
+      <c r="O9">
+        <v>17754.212719109539</v>
+      </c>
+      <c r="P9">
+        <v>7225.072651251432</v>
+      </c>
+      <c r="Q9">
+        <v>260347.78918485352</v>
+      </c>
+      <c r="R9">
+        <v>96429.122219145225</v>
+      </c>
+      <c r="S9">
+        <v>75532.66044155389</v>
+      </c>
+      <c r="T9">
+        <v>48163.542733068694</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -433,6 +909,24 @@
       <c r="G10">
         <v>17183.33839597832</v>
       </c>
+      <c r="I10">
+        <v>129204.27747251926</v>
+      </c>
+      <c r="K10">
+        <v>9741.7055312702505</v>
+      </c>
+      <c r="M10">
+        <v>66433.812947457292</v>
+      </c>
+      <c r="O10">
+        <v>19484.320728661729</v>
+      </c>
+      <c r="Q10">
+        <v>286887.34877449204</v>
+      </c>
+      <c r="S10">
+        <v>91174.869630993009</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -450,6 +944,24 @@
       <c r="G11">
         <v>16697.278683461867</v>
       </c>
+      <c r="I11">
+        <v>125727.73564443155</v>
+      </c>
+      <c r="K11">
+        <v>9266.6410797419376</v>
+      </c>
+      <c r="M11">
+        <v>63271.631235479996</v>
+      </c>
+      <c r="O11">
+        <v>18758.675406899001</v>
+      </c>
+      <c r="Q11">
+        <v>276956.10319958162</v>
+      </c>
+      <c r="S11">
+        <v>93643.389458801787</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -467,6 +979,24 @@
       <c r="G12">
         <v>14420.648644158011</v>
       </c>
+      <c r="I12">
+        <v>108656.54518737893</v>
+      </c>
+      <c r="K12">
+        <v>7862.5383641108401</v>
+      </c>
+      <c r="M12">
+        <v>53730.944906769008</v>
+      </c>
+      <c r="O12">
+        <v>15842.509483805543</v>
+      </c>
+      <c r="Q12">
+        <v>234222.36825654071</v>
+      </c>
+      <c r="S12">
+        <v>81835.930877803927</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -484,6 +1014,24 @@
       <c r="G13">
         <v>11064.618399154175</v>
       </c>
+      <c r="I13">
+        <v>83362.721085563826</v>
+      </c>
+      <c r="K13">
+        <v>5946.2913688775734</v>
+      </c>
+      <c r="M13">
+        <v>40657.024236833837</v>
+      </c>
+      <c r="O13">
+        <v>11732.790500243864</v>
+      </c>
+      <c r="Q13">
+        <v>173471.09885405813</v>
+      </c>
+      <c r="S13">
+        <v>60849.561588347235</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -501,6 +1049,24 @@
       <c r="G14">
         <v>7533.952381108088</v>
       </c>
+      <c r="I14">
+        <v>56718.156609188518</v>
+      </c>
+      <c r="K14">
+        <v>4001.422481754013</v>
+      </c>
+      <c r="M14">
+        <v>27365.752431246638</v>
+      </c>
+      <c r="O14">
+        <v>7612.7993745255917</v>
+      </c>
+      <c r="Q14">
+        <v>112421.23512283561</v>
+      </c>
+      <c r="S14">
+        <v>38491.023637263483</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -518,6 +1084,24 @@
       <c r="G15">
         <v>4540.3661378195357</v>
       </c>
+      <c r="I15">
+        <v>34135.082797210569</v>
+      </c>
+      <c r="K15">
+        <v>2385.8628236959298</v>
+      </c>
+      <c r="M15">
+        <v>16318.205822036307</v>
+      </c>
+      <c r="O15">
+        <v>4317.7963992173536</v>
+      </c>
+      <c r="Q15">
+        <v>63617.412661437214</v>
+      </c>
+      <c r="S15">
+        <v>20705.614700633658</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -534,6 +1118,24 @@
       </c>
       <c r="G16">
         <v>2405.3969112360091</v>
+      </c>
+      <c r="I16">
+        <v>18053.911485645782</v>
+      </c>
+      <c r="K16">
+        <v>1246.9047023385735</v>
+      </c>
+      <c r="M16">
+        <v>8530.3258308831228</v>
+      </c>
+      <c r="O16">
+        <v>2127.3899526609398</v>
+      </c>
+      <c r="Q16">
+        <v>31253.517554556416</v>
+      </c>
+      <c r="S16">
+        <v>9461.4880752028694</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:T16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="true"/>
@@ -551,26 +1153,82 @@
     <col min="4" max="4" width="16.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="16.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="16.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.7109375" customWidth="true"/>
+    <col min="13" max="13" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="16.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="16.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="63" t="s">
         <v>10</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -592,6 +1250,48 @@
       <c r="F2">
         <v>495.55489300625675</v>
       </c>
+      <c r="G2">
+        <v>15.794453587132878</v>
+      </c>
+      <c r="H2">
+        <v>57.661685062512284</v>
+      </c>
+      <c r="I2">
+        <v>164.16376145443155</v>
+      </c>
+      <c r="J2">
+        <v>658.88471341076206</v>
+      </c>
+      <c r="K2">
+        <v>15.991058604923069</v>
+      </c>
+      <c r="L2">
+        <v>54.44263817412191</v>
+      </c>
+      <c r="M2">
+        <v>161.87002557202936</v>
+      </c>
+      <c r="N2">
+        <v>631.14994389651974</v>
+      </c>
+      <c r="O2">
+        <v>28.835301858072214</v>
+      </c>
+      <c r="P2">
+        <v>90.017218662770247</v>
+      </c>
+      <c r="Q2">
+        <v>636.10251888678499</v>
+      </c>
+      <c r="R2">
+        <v>2213.5977615339998</v>
+      </c>
+      <c r="S2">
+        <v>45.347091281111339</v>
+      </c>
+      <c r="T2">
+        <v>148.53033827218553</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -612,6 +1312,48 @@
       <c r="F3">
         <v>495.55489300625675</v>
       </c>
+      <c r="G3">
+        <v>33.309001332418163</v>
+      </c>
+      <c r="H3">
+        <v>71.672697089211397</v>
+      </c>
+      <c r="I3">
+        <v>347.62030979511303</v>
+      </c>
+      <c r="J3">
+        <v>751.23851192124698</v>
+      </c>
+      <c r="K3">
+        <v>32.622007544278091</v>
+      </c>
+      <c r="L3">
+        <v>58.770714990640485</v>
+      </c>
+      <c r="M3">
+        <v>330.58434926995665</v>
+      </c>
+      <c r="N3">
+        <v>603.21191897923268</v>
+      </c>
+      <c r="O3">
+        <v>64.756991295913508</v>
+      </c>
+      <c r="P3">
+        <v>141.46471899255982</v>
+      </c>
+      <c r="Q3">
+        <v>1440.1733211301807</v>
+      </c>
+      <c r="R3">
+        <v>3147.9683569740528</v>
+      </c>
+      <c r="S3">
+        <v>128.16112041489598</v>
+      </c>
+      <c r="T3">
+        <v>474.81858947316584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -632,6 +1374,48 @@
       <c r="F4">
         <v>681.55628206018116</v>
       </c>
+      <c r="G4">
+        <v>51.925353208895174</v>
+      </c>
+      <c r="H4">
+        <v>109.35143904924655</v>
+      </c>
+      <c r="I4">
+        <v>543.92476549656965</v>
+      </c>
+      <c r="J4">
+        <v>1095.8732009200492</v>
+      </c>
+      <c r="K4">
+        <v>49.244317381723334</v>
+      </c>
+      <c r="L4">
+        <v>116.16739967893277</v>
+      </c>
+      <c r="M4">
+        <v>499.4893728389784</v>
+      </c>
+      <c r="N4">
+        <v>1145.8371923289105</v>
+      </c>
+      <c r="O4">
+        <v>107.0815193121322</v>
+      </c>
+      <c r="P4">
+        <v>269.64416137290186</v>
+      </c>
+      <c r="Q4">
+        <v>2400.0366193597001</v>
+      </c>
+      <c r="R4">
+        <v>5833.2075218628588</v>
+      </c>
+      <c r="S4">
+        <v>266.72786360811386</v>
+      </c>
+      <c r="T4">
+        <v>973.35880967462447</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -652,6 +1436,48 @@
       <c r="F5">
         <v>223.01833569268149</v>
       </c>
+      <c r="G5">
+        <v>70.797282188583452</v>
+      </c>
+      <c r="H5">
+        <v>50.030075694513648</v>
+      </c>
+      <c r="I5">
+        <v>744.0393252916291</v>
+      </c>
+      <c r="J5">
+        <v>548.82030229727343</v>
+      </c>
+      <c r="K5">
+        <v>65.108974084599652</v>
+      </c>
+      <c r="L5">
+        <v>42.74384206489573</v>
+      </c>
+      <c r="M5">
+        <v>660.86470301676286</v>
+      </c>
+      <c r="N5">
+        <v>469.10384505308116</v>
+      </c>
+      <c r="O5">
+        <v>154.01616809572076</v>
+      </c>
+      <c r="P5">
+        <v>146.41423874047524</v>
+      </c>
+      <c r="Q5">
+        <v>3476.8809144408824</v>
+      </c>
+      <c r="R5">
+        <v>3431.200900160532</v>
+      </c>
+      <c r="S5">
+        <v>478.43993049490973</v>
+      </c>
+      <c r="T5">
+        <v>657.00994504533821</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -672,6 +1498,48 @@
       <c r="F6">
         <v>617.79039568202177</v>
       </c>
+      <c r="G6">
+        <v>88.901359053010069</v>
+      </c>
+      <c r="H6">
+        <v>111.33821261414951</v>
+      </c>
+      <c r="I6">
+        <v>936.86526880376402</v>
+      </c>
+      <c r="J6">
+        <v>1074.6988627004946</v>
+      </c>
+      <c r="K6">
+        <v>79.418967290810571</v>
+      </c>
+      <c r="L6">
+        <v>90.545873892565723</v>
+      </c>
+      <c r="M6">
+        <v>806.47082068340251</v>
+      </c>
+      <c r="N6">
+        <v>822.21209218654531</v>
+      </c>
+      <c r="O6">
+        <v>202.62805284725675</v>
+      </c>
+      <c r="P6">
+        <v>260.15601193411163</v>
+      </c>
+      <c r="Q6">
+        <v>4603.6576106161183</v>
+      </c>
+      <c r="R6">
+        <v>5286.3069542979993</v>
+      </c>
+      <c r="S6">
+        <v>772.34447167859355</v>
+      </c>
+      <c r="T6">
+        <v>1199.3147457955965</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -692,6 +1560,48 @@
       <c r="F7">
         <v>557.01297491205253</v>
       </c>
+      <c r="G7">
+        <v>105.12182953327267</v>
+      </c>
+      <c r="H7">
+        <v>95.036497241840834</v>
+      </c>
+      <c r="I7">
+        <v>1110.1767224634259</v>
+      </c>
+      <c r="J7">
+        <v>1034.7445965236398</v>
+      </c>
+      <c r="K7">
+        <v>91.393977506006479</v>
+      </c>
+      <c r="L7">
+        <v>66.250871185970837</v>
+      </c>
+      <c r="M7">
+        <v>928.22827166879438</v>
+      </c>
+      <c r="N7">
+        <v>707.94564577756955</v>
+      </c>
+      <c r="O7">
+        <v>249.05458346613875</v>
+      </c>
+      <c r="P7">
+        <v>205.15904950308362</v>
+      </c>
+      <c r="Q7">
+        <v>5689.4705883421566</v>
+      </c>
+      <c r="R7">
+        <v>4769.3430165079108</v>
+      </c>
+      <c r="S7">
+        <v>1140.2064281254241</v>
+      </c>
+      <c r="T7">
+        <v>1444.4314452584015</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -712,6 +1622,48 @@
       <c r="F8">
         <v>2025.4739203953286</v>
       </c>
+      <c r="G8">
+        <v>118.36120755445354</v>
+      </c>
+      <c r="H8">
+        <v>278.51583265946846</v>
+      </c>
+      <c r="I8">
+        <v>1251.8642044392473</v>
+      </c>
+      <c r="J8">
+        <v>2983.0655672598714</v>
+      </c>
+      <c r="K8">
+        <v>100.34020332527859</v>
+      </c>
+      <c r="L8">
+        <v>231.19635707603771</v>
+      </c>
+      <c r="M8">
+        <v>1018.9531830851927</v>
+      </c>
+      <c r="N8">
+        <v>2410.9311843410496</v>
+      </c>
+      <c r="O8">
+        <v>288.96459412694838</v>
+      </c>
+      <c r="P8">
+        <v>554.76066169820672</v>
+      </c>
+      <c r="Q8">
+        <v>6630.4272899591379</v>
+      </c>
+      <c r="R8">
+        <v>12802.929517969234</v>
+      </c>
+      <c r="S8">
+        <v>1549.9692601129805</v>
+      </c>
+      <c r="T8">
+        <v>3389.8711820316835</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -732,6 +1684,48 @@
       <c r="F9">
         <v>-25.319318151986522</v>
       </c>
+      <c r="G9">
+        <v>127.66194036970064</v>
+      </c>
+      <c r="H9">
+        <v>31.210085807956425</v>
+      </c>
+      <c r="I9">
+        <v>1351.3196711001792</v>
+      </c>
+      <c r="J9">
+        <v>332.22503084068865</v>
+      </c>
+      <c r="K9">
+        <v>105.71673014105309</v>
+      </c>
+      <c r="L9">
+        <v>8.6208720565590795</v>
+      </c>
+      <c r="M9">
+        <v>1073.0569922148852</v>
+      </c>
+      <c r="N9">
+        <v>81.147453459067719</v>
+      </c>
+      <c r="O9">
+        <v>318.20704941770992</v>
+      </c>
+      <c r="P9">
+        <v>127.30933804609761</v>
+      </c>
+      <c r="Q9">
+        <v>7325.5367669461784</v>
+      </c>
+      <c r="R9">
+        <v>2828.008289594246</v>
+      </c>
+      <c r="S9">
+        <v>1946.3260272245943</v>
+      </c>
+      <c r="T9">
+        <v>1690.919441344369</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -746,6 +1740,27 @@
       <c r="E10">
         <v>767.63934000149902</v>
       </c>
+      <c r="G10">
+        <v>132.32061431631018</v>
+      </c>
+      <c r="I10">
+        <v>1400.7456442572548</v>
+      </c>
+      <c r="K10">
+        <v>107.18963712732722</v>
+      </c>
+      <c r="M10">
+        <v>1087.1158972156704</v>
+      </c>
+      <c r="O10">
+        <v>333.5175474857503</v>
+      </c>
+      <c r="Q10">
+        <v>7694.4251140316856</v>
+      </c>
+      <c r="S10">
+        <v>2261.1897082537803</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -760,6 +1775,27 @@
       <c r="E11">
         <v>758.06499407629667</v>
       </c>
+      <c r="G11">
+        <v>131.97583613142194</v>
+      </c>
+      <c r="I11">
+        <v>1396.1647634053866</v>
+      </c>
+      <c r="K11">
+        <v>104.66632112709217</v>
+      </c>
+      <c r="M11">
+        <v>1060.2294029860757</v>
+      </c>
+      <c r="O11">
+        <v>333.11746567956283</v>
+      </c>
+      <c r="Q11">
+        <v>7692.6060832708235</v>
+      </c>
+      <c r="S11">
+        <v>2432.2867110014581</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -774,6 +1810,27 @@
       <c r="E12">
         <v>723.28447464417059</v>
       </c>
+      <c r="G12">
+        <v>126.65455386548778</v>
+      </c>
+      <c r="I12">
+        <v>1337.9484414547906</v>
+      </c>
+      <c r="K12">
+        <v>98.305132288119552</v>
+      </c>
+      <c r="M12">
+        <v>994.11576722116888</v>
+      </c>
+      <c r="O12">
+        <v>317.05386591076956</v>
+      </c>
+      <c r="Q12">
+        <v>7320.3020325218286</v>
+      </c>
+      <c r="S12">
+        <v>2423.1540317159615</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -788,6 +1845,27 @@
       <c r="E13">
         <v>665.05806851117381</v>
       </c>
+      <c r="G13">
+        <v>116.76857691172169</v>
+      </c>
+      <c r="I13">
+        <v>1230.7671272764269</v>
+      </c>
+      <c r="K13">
+        <v>88.498927548371398</v>
+      </c>
+      <c r="M13">
+        <v>892.93028378668237</v>
+      </c>
+      <c r="O13">
+        <v>287.19038870141156</v>
+      </c>
+      <c r="Q13">
+        <v>6622.3992391276888</v>
+      </c>
+      <c r="S13">
+        <v>2235.7814064553454</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -802,6 +1880,27 @@
       <c r="E14">
         <v>586.26928084009273</v>
       </c>
+      <c r="G14">
+        <v>103.06191886289589</v>
+      </c>
+      <c r="I14">
+        <v>1082.9714162840146</v>
+      </c>
+      <c r="K14">
+        <v>75.8349167870727</v>
+      </c>
+      <c r="M14">
+        <v>762.83311783989052</v>
+      </c>
+      <c r="O14">
+        <v>246.85157059194785</v>
+      </c>
+      <c r="Q14">
+        <v>5679.5499820329651</v>
+      </c>
+      <c r="S14">
+        <v>1909.906295304716</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -816,6 +1915,27 @@
       <c r="E15">
         <v>490.68825063628105</v>
       </c>
+      <c r="G15">
+        <v>86.518308608856429</v>
+      </c>
+      <c r="I15">
+        <v>905.51780024864945</v>
+      </c>
+      <c r="K15">
+        <v>61.036507331733844</v>
+      </c>
+      <c r="M15">
+        <v>611.36917057317146</v>
+      </c>
+      <c r="O15">
+        <v>200.21439910908805</v>
+      </c>
+      <c r="Q15">
+        <v>4592.8578008371269</v>
+      </c>
+      <c r="S15">
+        <v>1509.3030861639684</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -829,6 +1949,27 @@
       </c>
       <c r="E16">
         <v>382.67323853970152</v>
+      </c>
+      <c r="G16">
+        <v>68.244822541736767</v>
+      </c>
+      <c r="I16">
+        <v>710.63073611077914</v>
+      </c>
+      <c r="K16">
+        <v>44.895148228736744</v>
+      </c>
+      <c r="M16">
+        <v>446.74668405672446</v>
+      </c>
+      <c r="O16">
+        <v>151.60089096249948</v>
+      </c>
+      <c r="Q16">
+        <v>3466.1599696734665</v>
+      </c>
+      <c r="S16">
+        <v>1101.5339061517545</v>
       </c>
     </row>
   </sheetData>
